--- a/assets/files/Policy_on_service_and_digital_analysis.xlsx
+++ b/assets/files/Policy_on_service_and_digital_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remy\git\ITStrategy\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF04218-68F5-48FE-BCE7-68CCCB88E494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B442D830-8C9B-4B0B-AC8C-106EA0693929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6310,7 +6310,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="remy" refreshedDate="44349.698644675926" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="1018" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="remy" refreshedDate="44354.605167592592" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="1018" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="=allInstrumentReqs"/>
   </cacheSource>
@@ -14578,7 +14578,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:M37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
@@ -14591,40 +14591,40 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="33">
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
         <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="20"/>
-        <item x="16"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="21"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14690,6 +14690,9 @@
     <field x="1"/>
   </rowFields>
   <rowItems count="32">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -14780,9 +14783,6 @@
     <i>
       <x v="30"/>
     </i>
-    <i>
-      <x v="31"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14845,7 +14845,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:M9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -15258,9 +15258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15640,8 +15638,8 @@
   <dimension ref="A1:I1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36537,11 +36535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36624,36 +36622,32 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>697</v>
+        <v>1241</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19">
-        <v>13</v>
-      </c>
-      <c r="F6" s="19">
-        <v>5</v>
-      </c>
-      <c r="G6" s="19">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -36663,17 +36657,17 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>695</v>
+        <v>772</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -36683,12 +36677,12 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
-        <v>1560</v>
+        <v>690</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -36696,112 +36690,120 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19">
-        <v>12</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="K9" s="19">
+        <v>2</v>
+      </c>
       <c r="L9" s="19"/>
       <c r="M9" s="19">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>782</v>
+        <v>687</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="19">
+        <v>7</v>
+      </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="19">
-        <v>26</v>
-      </c>
+      <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>774</v>
-      </c>
-      <c r="C11" s="19"/>
+        <v>691</v>
+      </c>
+      <c r="C11" s="19">
+        <v>8</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19">
-        <v>27</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2</v>
-      </c>
-      <c r="G11" s="19">
-        <v>12</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19">
+        <v>13</v>
+      </c>
+      <c r="I11" s="19">
+        <v>13</v>
+      </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>694</v>
-      </c>
-      <c r="C12" s="19">
-        <v>3</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19">
+        <v>4</v>
+      </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="19">
+        <v>7</v>
+      </c>
       <c r="M12" s="19">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="19">
+        <v>18</v>
+      </c>
       <c r="E13" s="19">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="19">
+        <v>5</v>
+      </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -36811,133 +36813,131 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="19">
+        <v>5</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="19">
-        <v>19</v>
-      </c>
-      <c r="I15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19">
+        <v>57</v>
+      </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
-        <v>693</v>
-      </c>
-      <c r="C16" s="19">
-        <v>3</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="19">
-        <v>2</v>
-      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="19">
+        <v>8</v>
+      </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="C17" s="19">
-        <v>8</v>
-      </c>
+        <v>1548</v>
+      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="19">
-        <v>19</v>
-      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>4</v>
+      </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
+      <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
-        <v>773</v>
+        <v>1510</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="19">
-        <v>6</v>
-      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>27</v>
+      </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>685</v>
+        <v>1504</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
       <c r="I19" s="19"/>
-      <c r="J19" s="19">
-        <v>44</v>
-      </c>
+      <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="19">
+        <v>71</v>
+      </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19">
+      <c r="I20" s="19">
         <v>10</v>
       </c>
+      <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -36962,136 +36962,138 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>776</v>
+        <v>689</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="19">
-        <v>71</v>
-      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="19">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19">
         <v>10</v>
       </c>
-      <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>1504</v>
+        <v>685</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
+      <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="J23" s="19">
+        <v>44</v>
+      </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>1510</v>
+        <v>773</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="19">
+        <v>6</v>
+      </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="19">
-        <v>27</v>
-      </c>
+      <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C25" s="19"/>
+        <v>692</v>
+      </c>
+      <c r="C25" s="19">
+        <v>8</v>
+      </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="19">
+        <v>19</v>
+      </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="19">
-        <v>4</v>
-      </c>
+      <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="19">
+        <v>1</v>
+      </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="C26" s="19"/>
+        <v>693</v>
+      </c>
+      <c r="C26" s="19">
+        <v>3</v>
+      </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="19">
+        <v>2</v>
+      </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="19">
-        <v>8</v>
-      </c>
+      <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="19">
-        <v>5</v>
-      </c>
+      <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19">
-        <v>57</v>
-      </c>
+      <c r="H27" s="19">
+        <v>19</v>
+      </c>
+      <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -37101,106 +37103,98 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C29" s="19"/>
-      <c r="D29" s="19">
-        <v>18</v>
-      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="19">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="19">
-        <v>5</v>
-      </c>
+      <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
-        <v>686</v>
-      </c>
-      <c r="C30" s="19"/>
+        <v>694</v>
+      </c>
+      <c r="C30" s="19">
+        <v>3</v>
+      </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="19">
-        <v>4</v>
-      </c>
+      <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="19">
-        <v>7</v>
-      </c>
+      <c r="L30" s="19"/>
       <c r="M30" s="19">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
-        <v>691</v>
-      </c>
-      <c r="C31" s="19">
-        <v>8</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19">
-        <v>5</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19">
-        <v>13</v>
-      </c>
-      <c r="I31" s="19">
-        <v>13</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F31" s="19">
+        <v>2</v>
+      </c>
+      <c r="G31" s="19">
+        <v>12</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
-        <v>687</v>
+        <v>782</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="19">
-        <v>7</v>
-      </c>
+      <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="H32" s="19">
+        <v>26</v>
+      </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
       <c r="M32" s="19">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>690</v>
+        <v>1560</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -37208,26 +37202,26 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19">
-        <v>16</v>
-      </c>
-      <c r="I33" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1</v>
+      </c>
       <c r="J33" s="19"/>
-      <c r="K33" s="19">
-        <v>2</v>
-      </c>
+      <c r="K33" s="19"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="21" t="s">
-        <v>772</v>
+        <v>695</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
@@ -37237,17 +37231,17 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="21" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -37257,27 +37251,31 @@
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="21" t="s">
-        <v>1241</v>
+        <v>697</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19">
-        <v>7</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="F36" s="19">
+        <v>5</v>
+      </c>
+      <c r="G36" s="19">
+        <v>2</v>
+      </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
@@ -37328,7 +37326,7 @@
   <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
